--- a/data/case1/13/Plm1_13.xlsx
+++ b/data/case1/13/Plm1_13.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.10970909915421601</v>
+        <v>-0.14243932011947891</v>
       </c>
       <c r="B1" s="0">
-        <v>0.10960497664598279</v>
+        <v>0.14230523266662942</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.013063376163303886</v>
+        <v>-0.0082231929961995576</v>
       </c>
       <c r="B2" s="0">
-        <v>0.012842831122906517</v>
+        <v>0.0080419000435956178</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.090086111464557916</v>
+        <v>0.092692858291474778</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.090295443923064767</v>
+        <v>-0.092924531477994066</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.19369076417481779</v>
+        <v>-0.19106277818102768</v>
       </c>
       <c r="B4" s="0">
-        <v>0.19278456419640833</v>
+        <v>0.19017135273812968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.18678456527418064</v>
+        <v>-0.18417135363830539</v>
       </c>
       <c r="B5" s="0">
-        <v>0.18495460963706734</v>
+        <v>0.18237434989929557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.076644575651105828</v>
+        <v>-0.079513687323173432</v>
       </c>
       <c r="B6" s="0">
-        <v>0.076572558667474144</v>
+        <v>0.079435276329873794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.056572559946621581</v>
+        <v>-0.059435277411820309</v>
       </c>
       <c r="B7" s="0">
-        <v>0.056427277933970288</v>
+        <v>0.059274001823620637</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.036427279221461717</v>
+        <v>-0.039274002913661121</v>
       </c>
       <c r="B8" s="0">
-        <v>0.036332497963948995</v>
+        <v>0.039168316146404258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.030332499102208033</v>
+        <v>-0.033168317100544797</v>
       </c>
       <c r="B9" s="0">
-        <v>0.030260662311811792</v>
+        <v>0.033088690041175539</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.024260663457219778</v>
+        <v>-0.027088691002418841</v>
       </c>
       <c r="B10" s="0">
-        <v>0.024260295790469399</v>
+        <v>0.027086234033113499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.019760296919493214</v>
+        <v>-0.022586234979716124</v>
       </c>
       <c r="B11" s="0">
-        <v>0.019748197804521084</v>
+        <v>0.022573050991660182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.013748198951539337</v>
+        <v>-0.016573051954973383</v>
       </c>
       <c r="B12" s="0">
-        <v>0.013689624059573635</v>
+        <v>0.01651803483572456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.007689625211510176</v>
+        <v>-0.010518035804250481</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0076676640457611356</v>
+        <v>0.010499371328323015</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0043323347337764773</v>
+        <v>0.0015006276400830743</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0043716066263224107</v>
+        <v>-0.0015317134597587767</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021049587075678389</v>
+        <v>0.0075317124901408405</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021026022566178248</v>
+        <v>-0.0075769424699450028</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026023721787407</v>
+        <v>-0.015026062731303025</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015003728817166717</v>
+        <v>0.015003807324497576</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090037299768468415</v>
+        <v>-0.0090038082968222355</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999988058533376</v>
+        <v>0.0089999989959768101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.086541601592596606</v>
+        <v>-0.036107256265832888</v>
       </c>
       <c r="B18" s="0">
-        <v>0.086470919416107961</v>
+        <v>0.03609577941582387</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.077470920516634401</v>
+        <v>-0.027095780337066611</v>
       </c>
       <c r="B19" s="0">
-        <v>0.076905088466854288</v>
+        <v>0.027012889852224831</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018012778719432632</v>
+        <v>-0.018012890781630375</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004160721950768</v>
+        <v>0.018004155332999261</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090041618512248789</v>
+        <v>-0.0090041562634697314</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999988699993594</v>
+        <v>0.0089999990687985587</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093928943688259992</v>
+        <v>-0.091734759257418474</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093622692734841806</v>
+        <v>0.091470315802453683</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.08462269384439125</v>
+        <v>-0.084622231035953455</v>
       </c>
       <c r="B23" s="0">
-        <v>0.08412421126541858</v>
+        <v>0.084124126219622397</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.04212421276331213</v>
+        <v>-0.04212412750568717</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998494760327</v>
+        <v>0.041999998706962138</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.10231003510407177</v>
+        <v>-0.096860663510557998</v>
       </c>
       <c r="B25" s="0">
-        <v>0.10218015385819257</v>
+        <v>0.09674339205389515</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.096180154980000765</v>
+        <v>-0.090743392991750937</v>
       </c>
       <c r="B26" s="0">
-        <v>0.096014779664077565</v>
+        <v>0.090595394581356459</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.090014780790924398</v>
+        <v>-0.084595395523813899</v>
       </c>
       <c r="B27" s="0">
-        <v>0.089457233126855051</v>
+        <v>0.084100612647927342</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.083457234276691494</v>
+        <v>-0.066088507302549893</v>
       </c>
       <c r="B28" s="0">
-        <v>0.083089673759020322</v>
+        <v>0.065626593933231447</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062513572041471122</v>
+        <v>-0.053626594969228947</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062161951043716357</v>
+        <v>0.053414984848682678</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042161952373806599</v>
+        <v>-0.033414985972515243</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042017449827983278</v>
+        <v>0.033342371015621097</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027017451112094193</v>
+        <v>-0.018342372094551251</v>
       </c>
       <c r="B31" s="0">
-        <v>0.02700050930034692</v>
+        <v>0.018335780446198768</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060005106538048025</v>
+        <v>-0.0060005370610420883</v>
       </c>
       <c r="B32" s="0">
-        <v>0.005999998815501506</v>
+        <v>0.0059999990130119585</v>
       </c>
     </row>
   </sheetData>
